--- a/src/Datafile/Hello.xlsx
+++ b/src/Datafile/Hello.xlsx
@@ -55,15 +55,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="J10"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="10">
-      <c r="J10" t="n" s="0">
-        <v>67.0</v>
+    <row r="2">
+      <c r="B2" t="n" s="0">
+        <v>20.0</v>
       </c>
     </row>
   </sheetData>
